--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_9_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_9_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.79000000000028</v>
+        <v>23.80000000000028</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.253400804762363e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>3.795634272222758e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4801349431710304</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>39.39926339443797</v>
+        <v>42.77799328627249</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[32.440952321239514, 46.35757446763643]</t>
+          <t>[36.238362747515815, 49.317623825029166]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.377394977249579</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 1.566079220708425]</t>
+          <t>[1.46544762419704, 1.7925003128590404]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.87683787692828</v>
+        <v>59.03593094230053</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.62113117008866, 64.1325445837679]</t>
+          <t>[54.83459760107954, 63.237264283521526]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.57477477477499</v>
+        <v>17.62962962962984</v>
       </c>
       <c r="X2" t="n">
-        <v>17.86036036036057</v>
+        <v>17.01021021021041</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28918918918941</v>
+        <v>18.24904904904927</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.74000000000027</v>
+        <v>23.16000000000018</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.642330798607873e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>3.253400804762363e-16</v>
+        <v>8.003365979715415e-14</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>42.48387438425796</v>
+        <v>40.61458504958974</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[31.31251849605811, 53.65523027245781]</t>
+          <t>[28.177355729575996, 53.05181436960349]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.392974707277062e-12</v>
+        <v>9.546461399168038e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>2.392974707277062e-12</v>
+        <v>9.546461399168038e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.226447582482503</v>
+        <v>-0.6666843268879239</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.9497106920761942, 1.5031844728888109]</t>
+          <t>[-0.9685791164220783, -0.3647895373537695]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>2.168433365201672e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>2.168433365201672e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>62.59569506797749</v>
+        <v>60.8361389464116</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[56.35266645175243, 68.83872368420256]</t>
+          <t>[54.345414429862146, 67.32686346296106]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.10606606606628</v>
+        <v>2.457417417417439</v>
       </c>
       <c r="X3" t="n">
-        <v>18.06046046046066</v>
+        <v>1.344624624624637</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.1516716716719</v>
+        <v>3.570210210210241</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_9_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_9_sine_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.80000000000028</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,18 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.795634272222758e-16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.4801349431710304</v>
-      </c>
+        <v>4.055609222375001e-16</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>42.77799328627249</v>
+        <v>40.62497154576117</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.238362747515815, 49.317623825029166]</t>
+          <t>[33.87372698057976, 47.37621611094258]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -601,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62897396852804</v>
+        <v>1.679289766783734</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.46544762419704, 1.7925003128590404]</t>
+          <t>[1.4906055233248887, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -615,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.03593094230053</v>
+        <v>58.81182023005874</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.83459760107954, 63.237264283521526]</t>
+          <t>[54.58235284411187, 63.04128761600562]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.62962962962984</v>
+        <v>17.49033033033054</v>
       </c>
       <c r="X2" t="n">
-        <v>17.01021021021041</v>
+        <v>16.77351351351372</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.24904904904927</v>
+        <v>18.20714714714736</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.16000000000018</v>
+        <v>23.66000000000026</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.642330798607873e-14</v>
+        <v>8.837375276016246e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>8.003365979715415e-14</v>
+        <v>2.743777943385889e-13</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>40.61458504958974</v>
+        <v>39.39087043358661</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[28.177355729575996, 53.05181436960349]</t>
+          <t>[27.01970109535634, 51.76203977181689]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9.546461399168038e-10</v>
+        <v>2.260050369073952e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>9.546461399168038e-10</v>
+        <v>2.260050369073952e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.6666843268879239</v>
+        <v>0.9622896416401172</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.9685791164220783, -0.3647895373537695]</t>
+          <t>[0.6478159025420398, 1.2767633807381946]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.168433365201672e-05</v>
+        <v>8.183106858794531e-09</v>
       </c>
       <c r="R3" t="n">
-        <v>2.168433365201672e-05</v>
+        <v>8.183106858794531e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>60.8361389464116</v>
+        <v>55.32185614496423</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.345414429862146, 67.32686346296106]</t>
+          <t>[48.8387396503636, 61.80497263956486]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.457417417417439</v>
+        <v>20.03639639639661</v>
       </c>
       <c r="X3" t="n">
-        <v>1.344624624624637</v>
+        <v>18.85221221221242</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.570210210210241</v>
+        <v>21.22058058058081</v>
       </c>
     </row>
   </sheetData>
